--- a/excel_selenium/pythondemo.xlsx
+++ b/excel_selenium/pythondemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name Test</t>
   </si>
@@ -33,16 +33,28 @@
   <si>
     <t>Testcase2</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +73,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,9 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +150,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +177,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,96 +208,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,25 +218,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,85 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,67 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,24 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,6 +423,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,26 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -479,6 +471,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,142 +514,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1008,6 +1020,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel_selenium/pythondemo.xlsx
+++ b/excel_selenium/pythondemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name Test</t>
   </si>
@@ -31,19 +31,73 @@
     <t>Testcase1</t>
   </si>
   <si>
+    <t>vini</t>
+  </si>
+  <si>
+    <t>pinho</t>
+  </si>
+  <si>
+    <t>vini@gmail</t>
+  </si>
+  <si>
     <t>Testcase2</t>
   </si>
   <si>
+    <t>sophia</t>
+  </si>
+  <si>
+    <t>pinhosp</t>
+  </si>
+  <si>
+    <t>sophia@gmail</t>
+  </si>
+  <si>
     <t>t1</t>
   </si>
   <si>
+    <t>cibelle</t>
+  </si>
+  <si>
+    <t>santo</t>
+  </si>
+  <si>
+    <t>cibelle@gmail</t>
+  </si>
+  <si>
     <t>t2</t>
   </si>
   <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>santos</t>
+  </si>
+  <si>
+    <t>pedro@gmail</t>
+  </si>
+  <si>
     <t>t3</t>
   </si>
   <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>paulo</t>
+  </si>
+  <si>
+    <t>ana@gmail</t>
+  </si>
+  <si>
     <t>t4</t>
+  </si>
+  <si>
+    <t>ronaldo</t>
+  </si>
+  <si>
+    <t>silva</t>
+  </si>
+  <si>
+    <t>ronaldo@gmail</t>
   </si>
 </sst>
 </file>
@@ -51,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -73,6 +127,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -81,9 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,110 +176,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +188,80 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,6 +272,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,67 +308,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,97 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +463,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,15 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,30 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -495,17 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,142 +568,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,8 +713,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +1045,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -993,7 +1053,7 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1010,37 +1070,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="vini@gmail"/>
+    <hyperlink ref="D3" r:id="rId2" display="sophia@gmail"/>
+    <hyperlink ref="D4" r:id="rId3" display="cibelle@gmail"/>
+    <hyperlink ref="D5" r:id="rId4" display="pedro@gmail"/>
+    <hyperlink ref="D6" r:id="rId5" display="ana@gmail"/>
+    <hyperlink ref="D7" r:id="rId6" display="ronaldo@gmail"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
